--- a/data_year/zb/固定资产投资和房地产/按用途分商品房销售面积.xlsx
+++ b/data_year/zb/固定资产投资和房地产/按用途分商品房销售面积.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,524 +468,320 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16570.2849</v>
+        <v>93376.60000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>230.5596</v>
+        <v>2503.24</v>
       </c>
       <c r="D2" t="n">
-        <v>640.7195</v>
+        <v>4219.1</v>
       </c>
       <c r="E2" t="n">
-        <v>436.9753</v>
+        <v>1889.97</v>
       </c>
       <c r="F2" t="n">
-        <v>1399.3082</v>
+        <v>6994.84</v>
       </c>
       <c r="G2" t="n">
-        <v>18637.128</v>
+        <v>104764.65</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19938.7458</v>
+        <v>96528.4129</v>
       </c>
       <c r="C3" t="n">
-        <v>274.4391</v>
+        <v>2964.7111</v>
       </c>
       <c r="D3" t="n">
-        <v>878.1852</v>
+        <v>3729.9297</v>
       </c>
       <c r="E3" t="n">
-        <v>502.5701</v>
+        <v>2004.9684</v>
       </c>
       <c r="F3" t="n">
-        <v>1696.1471</v>
+        <v>7868.654</v>
       </c>
       <c r="G3" t="n">
-        <v>22411.9021</v>
+        <v>109366.7464</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>23702.3148</v>
+        <v>98467.5134</v>
       </c>
       <c r="C4" t="n">
-        <v>348.4683</v>
+        <v>2823.2058</v>
       </c>
       <c r="D4" t="n">
-        <v>1241.2605</v>
+        <v>3476.0015</v>
       </c>
       <c r="E4" t="n">
-        <v>538.9175</v>
+        <v>2253.6505</v>
       </c>
       <c r="F4" t="n">
-        <v>2218.5849</v>
+        <v>7759.2767</v>
       </c>
       <c r="G4" t="n">
-        <v>26808.2855</v>
+        <v>111303.6464</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>29778.8465</v>
+        <v>115722.6883</v>
       </c>
       <c r="C5" t="n">
-        <v>475.1919</v>
+        <v>3475.3335</v>
       </c>
       <c r="D5" t="n">
-        <v>1449.8736</v>
+        <v>3632.0295</v>
       </c>
       <c r="E5" t="n">
-        <v>630.4886</v>
+        <v>2883.3461</v>
       </c>
       <c r="F5" t="n">
-        <v>2833.0983</v>
+        <v>8469.2248</v>
       </c>
       <c r="G5" t="n">
-        <v>33717.6253</v>
+        <v>130550.5927</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>33819.8867</v>
+        <v>105187.7897</v>
       </c>
       <c r="C6" t="n">
-        <v>618.6244</v>
+        <v>3878.3723</v>
       </c>
       <c r="D6" t="n">
-        <v>2323.05</v>
+        <v>3047.3494</v>
       </c>
       <c r="E6" t="n">
-        <v>692.8364</v>
+        <v>2505.4512</v>
       </c>
       <c r="F6" t="n">
-        <v>3100.294</v>
+        <v>9076.9282</v>
       </c>
       <c r="G6" t="n">
-        <v>38231.6415</v>
+        <v>120648.5414</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>49587.831</v>
+        <v>112412.2855</v>
       </c>
       <c r="C7" t="n">
-        <v>720.7842000000001</v>
+        <v>3915.2935</v>
       </c>
       <c r="D7" t="n">
-        <v>2818.4421</v>
+        <v>3487.4002</v>
       </c>
       <c r="E7" t="n">
-        <v>1096.2316</v>
+        <v>2912.5947</v>
       </c>
       <c r="F7" t="n">
-        <v>4081.3779</v>
+        <v>9254.792299999999</v>
       </c>
       <c r="G7" t="n">
-        <v>55486.2247</v>
+        <v>128494.966</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>55422.9487</v>
+        <v>137539.9314</v>
       </c>
       <c r="C8" t="n">
-        <v>865.2902</v>
+        <v>5170.4266</v>
       </c>
       <c r="D8" t="n">
-        <v>3672.4434</v>
+        <v>4470.0032</v>
       </c>
       <c r="E8" t="n">
-        <v>1231.0434</v>
+        <v>3826.2155</v>
       </c>
       <c r="F8" t="n">
-        <v>4337.791</v>
+        <v>10811.9558</v>
       </c>
       <c r="G8" t="n">
-        <v>61857.0733</v>
+        <v>157348.5293</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>70135.8754</v>
+        <v>144788.7688</v>
       </c>
       <c r="C9" t="n">
-        <v>1109.0059</v>
+        <v>7024.7026</v>
       </c>
       <c r="D9" t="n">
-        <v>4581.3061</v>
+        <v>4743.4423</v>
       </c>
       <c r="E9" t="n">
-        <v>1465.2254</v>
+        <v>4756.2078</v>
       </c>
       <c r="F9" t="n">
-        <v>4644.6113</v>
+        <v>12838.1362</v>
       </c>
       <c r="G9" t="n">
-        <v>77354.71799999999</v>
+        <v>169407.8154</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59280.35</v>
+        <v>147759.589</v>
       </c>
       <c r="C10" t="n">
-        <v>1326.37</v>
+        <v>7406.1071</v>
       </c>
       <c r="D10" t="n">
-        <v>2865.25</v>
+        <v>4417.7739</v>
       </c>
       <c r="E10" t="n">
-        <v>1157.05</v>
+        <v>4365.9523</v>
       </c>
       <c r="F10" t="n">
-        <v>4206.06</v>
+        <v>11932.948</v>
       </c>
       <c r="G10" t="n">
-        <v>65969.83</v>
+        <v>171464.5964</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>86184.89</v>
+        <v>150144.3249</v>
       </c>
       <c r="C11" t="n">
-        <v>1697.65</v>
+        <v>7517.9205</v>
       </c>
       <c r="D11" t="n">
-        <v>4626.05</v>
+        <v>3909.7316</v>
       </c>
       <c r="E11" t="n">
-        <v>1544.43</v>
+        <v>3722.7571</v>
       </c>
       <c r="F11" t="n">
-        <v>5328.03</v>
+        <v>10172.8651</v>
       </c>
       <c r="G11" t="n">
-        <v>94755</v>
+        <v>171557.8676</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>93376.60000000001</v>
+        <v>154878.4698</v>
       </c>
       <c r="C12" t="n">
-        <v>2503.24</v>
-      </c>
-      <c r="D12" t="n">
-        <v>4219.1</v>
-      </c>
+        <v>8584.966899999999</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="n">
-        <v>1889.97</v>
+        <v>3334.3263</v>
       </c>
       <c r="F12" t="n">
-        <v>6994.84</v>
+        <v>9288.458699999999</v>
       </c>
       <c r="G12" t="n">
-        <v>104764.65</v>
+        <v>176086.2217</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>96528.4129</v>
+        <v>156532.1717</v>
       </c>
       <c r="C13" t="n">
-        <v>2964.7111</v>
-      </c>
-      <c r="D13" t="n">
-        <v>3729.9297</v>
-      </c>
+        <v>10481.0194</v>
+      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="n">
-        <v>2004.9684</v>
+        <v>3374.6647</v>
       </c>
       <c r="F13" t="n">
-        <v>7868.654</v>
+        <v>9045.554099999999</v>
       </c>
       <c r="G13" t="n">
-        <v>109366.7464</v>
+        <v>179433.4099</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2022年</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>98467.5134</v>
+        <v>114630.6515</v>
       </c>
       <c r="C14" t="n">
-        <v>2823.2058</v>
-      </c>
-      <c r="D14" t="n">
-        <v>3476.0015</v>
-      </c>
+        <v>9703.269700000001</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="n">
-        <v>2253.6505</v>
+        <v>3263.5092</v>
       </c>
       <c r="F14" t="n">
-        <v>7759.2767</v>
+        <v>8239.4638</v>
       </c>
       <c r="G14" t="n">
-        <v>111303.6464</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>115722.6883</v>
-      </c>
-      <c r="C15" t="n">
-        <v>3475.3335</v>
-      </c>
-      <c r="D15" t="n">
-        <v>3632.0295</v>
-      </c>
-      <c r="E15" t="n">
-        <v>2883.3461</v>
-      </c>
-      <c r="F15" t="n">
-        <v>8469.2248</v>
-      </c>
-      <c r="G15" t="n">
-        <v>130550.5927</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>105187.7897</v>
-      </c>
-      <c r="C16" t="n">
-        <v>3878.3723</v>
-      </c>
-      <c r="D16" t="n">
-        <v>3047.3494</v>
-      </c>
-      <c r="E16" t="n">
-        <v>2505.4512</v>
-      </c>
-      <c r="F16" t="n">
-        <v>9076.9282</v>
-      </c>
-      <c r="G16" t="n">
-        <v>120648.5414</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>112412.2855</v>
-      </c>
-      <c r="C17" t="n">
-        <v>3915.2935</v>
-      </c>
-      <c r="D17" t="n">
-        <v>3487.4002</v>
-      </c>
-      <c r="E17" t="n">
-        <v>2912.5947</v>
-      </c>
-      <c r="F17" t="n">
-        <v>9254.792299999999</v>
-      </c>
-      <c r="G17" t="n">
-        <v>128494.966</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>137539.9314</v>
-      </c>
-      <c r="C18" t="n">
-        <v>5170.4266</v>
-      </c>
-      <c r="D18" t="n">
-        <v>4470.0032</v>
-      </c>
-      <c r="E18" t="n">
-        <v>3826.2155</v>
-      </c>
-      <c r="F18" t="n">
-        <v>10811.9558</v>
-      </c>
-      <c r="G18" t="n">
-        <v>157348.5293</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>144788.7688</v>
-      </c>
-      <c r="C19" t="n">
-        <v>7024.7026</v>
-      </c>
-      <c r="D19" t="n">
-        <v>4743.4423</v>
-      </c>
-      <c r="E19" t="n">
-        <v>4756.2078</v>
-      </c>
-      <c r="F19" t="n">
-        <v>12838.1362</v>
-      </c>
-      <c r="G19" t="n">
-        <v>169407.8154</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>147759.589</v>
-      </c>
-      <c r="C20" t="n">
-        <v>7406.1071</v>
-      </c>
-      <c r="D20" t="n">
-        <v>4417.7739</v>
-      </c>
-      <c r="E20" t="n">
-        <v>4365.9523</v>
-      </c>
-      <c r="F20" t="n">
-        <v>11932.948</v>
-      </c>
-      <c r="G20" t="n">
-        <v>171464.5964</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>150144.3249</v>
-      </c>
-      <c r="C21" t="n">
-        <v>7517.9205</v>
-      </c>
-      <c r="D21" t="n">
-        <v>3909.7316</v>
-      </c>
-      <c r="E21" t="n">
-        <v>3722.7571</v>
-      </c>
-      <c r="F21" t="n">
-        <v>10172.8651</v>
-      </c>
-      <c r="G21" t="n">
-        <v>171557.8676</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>154878.4698</v>
-      </c>
-      <c r="C22" t="n">
-        <v>8584.966899999999</v>
-      </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="n">
-        <v>3334.3263</v>
-      </c>
-      <c r="F22" t="n">
-        <v>9288.458699999999</v>
-      </c>
-      <c r="G22" t="n">
-        <v>176086.2217</v>
+        <v>135836.8942</v>
       </c>
     </row>
   </sheetData>
